--- a/src/main/resources/61-microservice-recruit-master/pf-recruit_attribute.xlsx
+++ b/src/main/resources/61-microservice-recruit-master/pf-recruit_attribute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="361">
   <si>
     <t>类名</t>
   </si>
@@ -1059,7 +1059,10 @@
     <t>allRecruit(java.lang.String,java.lang.Integer,java.lang.Integer)</t>
   </si>
   <si>
-    <t>postResume(javax.servlet.http.HttpServletRequest)</t>
+    <t>postResume(javax.servlet.http.HttpServletRequest,com.stalary.pf.recruit.data.dto.SendResume)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest,com.stalary.pf.recruit.data.dto.SendResume</t>
   </si>
   <si>
     <t>getHrInfo(javax.servlet.http.HttpServletRequest)</t>
@@ -5006,7 +5009,7 @@
         <v>348</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>349</v>
       </c>
       <c r="D4" t="s">
         <v>346</v>
@@ -5020,7 +5023,7 @@
         <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
         <v>171</v>
@@ -5054,7 +5057,7 @@
         <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -5071,7 +5074,7 @@
         <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C8" t="s">
         <v>171</v>
@@ -5088,7 +5091,7 @@
         <v>344</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -5105,7 +5108,7 @@
         <v>344</v>
       </c>
       <c r="B10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -5122,7 +5125,7 @@
         <v>344</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -5139,7 +5142,7 @@
         <v>344</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -5153,10 +5156,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -5170,7 +5173,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
         <v>206</v>
@@ -5187,10 +5190,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C15" t="s">
         <v>216</v>
@@ -5204,10 +5207,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -5221,10 +5224,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
